--- a/Week 3/3-3/창원시_인구_202206.xlsx
+++ b/Week 3/3-3/창원시_인구_202206.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365skku-my.sharepoint.com/personal/gnradio3_o365_skku_edu/Documents/Desktop/3-3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KERI\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{84B6A3C9-C0D8-42E4-AE80-11101DC379A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAE39F92-A925-4383-B7F6-754C752304F6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37A365CE-7EE0-4F16-BD34-167E35AE99AC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19845" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$182</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$182</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,17 +37,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="179">
   <si>
     <t>EMD_CD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EMD_KOR_NM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -586,7 +581,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -946,16 +941,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD509015-6DFE-4BB1-A02E-54A31408E531}">
-  <dimension ref="A1:G182"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -974,4170 +969,3624 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>48121101</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>3.9781502329365184</v>
+        <v>25350</v>
       </c>
       <c r="D2">
-        <v>25350</v>
+        <v>24699</v>
       </c>
       <c r="E2">
-        <v>24699</v>
+        <v>73</v>
       </c>
       <c r="F2">
-        <v>73</v>
-      </c>
-      <c r="G2">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>48121102</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>3.1881436145409872</v>
+        <v>25350</v>
       </c>
       <c r="D3">
-        <v>25350</v>
+        <v>24699</v>
       </c>
       <c r="E3">
-        <v>24699</v>
+        <v>73</v>
       </c>
       <c r="F3">
-        <v>73</v>
-      </c>
-      <c r="G3">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>48121103</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>1.603178706058318</v>
+        <v>25350</v>
       </c>
       <c r="D4">
-        <v>25350</v>
+        <v>24699</v>
       </c>
       <c r="E4">
-        <v>24699</v>
+        <v>73</v>
       </c>
       <c r="F4">
-        <v>73</v>
-      </c>
-      <c r="G4">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>48121104</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>4.0040265739142393</v>
+        <v>25350</v>
       </c>
       <c r="D5">
-        <v>25350</v>
+        <v>24699</v>
       </c>
       <c r="E5">
-        <v>24699</v>
+        <v>73</v>
       </c>
       <c r="F5">
-        <v>73</v>
-      </c>
-      <c r="G5">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>48121105</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>4.1794336936473711</v>
+        <v>20841</v>
       </c>
       <c r="D6">
-        <v>20841</v>
+        <v>20135</v>
       </c>
       <c r="E6">
-        <v>20135</v>
+        <v>299</v>
       </c>
       <c r="F6">
-        <v>299</v>
-      </c>
-      <c r="G6">
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>48121106</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>2.5993177312202294</v>
+        <v>25350</v>
       </c>
       <c r="D7">
-        <v>25350</v>
+        <v>24699</v>
       </c>
       <c r="E7">
-        <v>24699</v>
+        <v>73</v>
       </c>
       <c r="F7">
-        <v>73</v>
-      </c>
-      <c r="G7">
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>48121107</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>3.1932379306838676</v>
+        <v>25350</v>
       </c>
       <c r="D8">
-        <v>25350</v>
+        <v>24699</v>
       </c>
       <c r="E8">
-        <v>24699</v>
+        <v>73</v>
       </c>
       <c r="F8">
-        <v>73</v>
-      </c>
-      <c r="G8">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>48121108</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>2.4866983323845115</v>
+        <v>15696</v>
       </c>
       <c r="D9">
-        <v>15696</v>
+        <v>14397</v>
       </c>
       <c r="E9">
-        <v>14397</v>
+        <v>263</v>
       </c>
       <c r="F9">
-        <v>263</v>
-      </c>
-      <c r="G9">
         <v>394</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>48121112</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>3.7864752954848022</v>
+        <v>13117</v>
       </c>
       <c r="D10">
-        <v>13117</v>
+        <v>12591</v>
       </c>
       <c r="E10">
-        <v>12591</v>
+        <v>537</v>
       </c>
       <c r="F10">
-        <v>537</v>
-      </c>
-      <c r="G10">
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>48121113</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>0.44387113460223226</v>
+        <v>15696</v>
       </c>
       <c r="D11">
-        <v>15696</v>
+        <v>14397</v>
       </c>
       <c r="E11">
-        <v>14397</v>
+        <v>263</v>
       </c>
       <c r="F11">
-        <v>263</v>
-      </c>
-      <c r="G11">
         <v>394</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>48121114</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>1.488407971723309</v>
+        <v>20841</v>
       </c>
       <c r="D12">
-        <v>20841</v>
+        <v>20135</v>
       </c>
       <c r="E12">
-        <v>20135</v>
+        <v>299</v>
       </c>
       <c r="F12">
-        <v>299</v>
-      </c>
-      <c r="G12">
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>48121116</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>1.0918640632612109</v>
+        <v>15696</v>
       </c>
       <c r="D13">
-        <v>15696</v>
+        <v>14397</v>
       </c>
       <c r="E13">
-        <v>14397</v>
+        <v>263</v>
       </c>
       <c r="F13">
-        <v>263</v>
-      </c>
-      <c r="G13">
         <v>394</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>48121117</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>1.8426696023936617</v>
+        <v>15696</v>
       </c>
       <c r="D14">
-        <v>15696</v>
+        <v>14397</v>
       </c>
       <c r="E14">
-        <v>14397</v>
+        <v>263</v>
       </c>
       <c r="F14">
-        <v>263</v>
-      </c>
-      <c r="G14">
         <v>394</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>48121118</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>4.5988453944782535</v>
+        <v>20841</v>
       </c>
       <c r="D15">
-        <v>20841</v>
+        <v>20135</v>
       </c>
       <c r="E15">
-        <v>20135</v>
+        <v>299</v>
       </c>
       <c r="F15">
-        <v>299</v>
-      </c>
-      <c r="G15">
         <v>332</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>48121119</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>3.8479194556408753</v>
+        <v>13117</v>
       </c>
       <c r="D16">
-        <v>13117</v>
+        <v>12591</v>
       </c>
       <c r="E16">
-        <v>12591</v>
+        <v>537</v>
       </c>
       <c r="F16">
-        <v>537</v>
-      </c>
-      <c r="G16">
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>48121120</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>2.329661226845424</v>
+        <v>13117</v>
       </c>
       <c r="D17">
-        <v>13117</v>
+        <v>12591</v>
       </c>
       <c r="E17">
-        <v>12591</v>
+        <v>537</v>
       </c>
       <c r="F17">
-        <v>537</v>
-      </c>
-      <c r="G17">
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>48121121</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>2.5280225359512105</v>
+        <v>13117</v>
       </c>
       <c r="D18">
-        <v>13117</v>
+        <v>12591</v>
       </c>
       <c r="E18">
-        <v>12591</v>
+        <v>537</v>
       </c>
       <c r="F18">
-        <v>537</v>
-      </c>
-      <c r="G18">
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>48121122</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19">
-        <v>3.6227693786026705</v>
+        <v>13117</v>
       </c>
       <c r="D19">
-        <v>13117</v>
+        <v>12591</v>
       </c>
       <c r="E19">
-        <v>12591</v>
+        <v>537</v>
       </c>
       <c r="F19">
-        <v>537</v>
-      </c>
-      <c r="G19">
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>48121124</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20">
-        <v>0.48503440217049887</v>
+        <v>20841</v>
       </c>
       <c r="D20">
-        <v>20841</v>
+        <v>20135</v>
       </c>
       <c r="E20">
-        <v>20135</v>
+        <v>299</v>
       </c>
       <c r="F20">
-        <v>299</v>
-      </c>
-      <c r="G20">
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>48121125</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>0.73658139553293978</v>
+        <v>15696</v>
       </c>
       <c r="D21">
-        <v>15696</v>
+        <v>14397</v>
       </c>
       <c r="E21">
-        <v>14397</v>
+        <v>263</v>
       </c>
       <c r="F21">
-        <v>263</v>
-      </c>
-      <c r="G21">
         <v>394</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>48121127</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22">
-        <v>2.3727029796890049</v>
+        <v>15696</v>
       </c>
       <c r="D22">
-        <v>15696</v>
+        <v>14397</v>
       </c>
       <c r="E22">
-        <v>14397</v>
+        <v>263</v>
       </c>
       <c r="F22">
-        <v>263</v>
-      </c>
-      <c r="G22">
         <v>394</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>48121129</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23">
-        <v>3.6299998087534058</v>
+        <v>13117</v>
       </c>
       <c r="D23">
-        <v>13117</v>
+        <v>12591</v>
       </c>
       <c r="E23">
-        <v>12591</v>
+        <v>537</v>
       </c>
       <c r="F23">
-        <v>537</v>
-      </c>
-      <c r="G23">
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>48123101</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24">
-        <v>3.3003992267470865</v>
+        <v>22880</v>
       </c>
       <c r="D24">
-        <v>22880</v>
+        <v>23143</v>
       </c>
       <c r="E24">
-        <v>23143</v>
+        <v>90</v>
       </c>
       <c r="F24">
-        <v>90</v>
-      </c>
-      <c r="G24">
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>48123102</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25">
-        <v>3.6082961164994334</v>
+        <v>22880</v>
       </c>
       <c r="D25">
-        <v>22880</v>
+        <v>23143</v>
       </c>
       <c r="E25">
-        <v>23143</v>
+        <v>90</v>
       </c>
       <c r="F25">
-        <v>90</v>
-      </c>
-      <c r="G25">
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>48123103</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>3.5883782481532545</v>
+        <v>20106</v>
       </c>
       <c r="D26">
-        <v>20106</v>
+        <v>19576</v>
       </c>
       <c r="E26">
-        <v>19576</v>
+        <v>155</v>
       </c>
       <c r="F26">
-        <v>155</v>
-      </c>
-      <c r="G26">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>48123104</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27">
-        <v>1.0580426534638758</v>
+        <v>18658</v>
       </c>
       <c r="D27">
-        <v>18658</v>
+        <v>15860</v>
       </c>
       <c r="E27">
-        <v>15860</v>
+        <v>671</v>
       </c>
       <c r="F27">
-        <v>671</v>
-      </c>
-      <c r="G27">
         <v>453</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>48123105</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28">
-        <v>1.2114190274331977</v>
+        <v>20106</v>
       </c>
       <c r="D28">
-        <v>20106</v>
+        <v>19576</v>
       </c>
       <c r="E28">
-        <v>19576</v>
+        <v>155</v>
       </c>
       <c r="F28">
-        <v>155</v>
-      </c>
-      <c r="G28">
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>48123106</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29">
-        <v>4.5505412385281385</v>
+        <v>22880</v>
       </c>
       <c r="D29">
-        <v>22880</v>
+        <v>23143</v>
       </c>
       <c r="E29">
-        <v>23143</v>
+        <v>90</v>
       </c>
       <c r="F29">
-        <v>90</v>
-      </c>
-      <c r="G29">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>48123107</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30">
-        <v>4.2754426939731056</v>
+        <v>13448</v>
       </c>
       <c r="D30">
-        <v>13448</v>
+        <v>12389</v>
       </c>
       <c r="E30">
-        <v>12389</v>
+        <v>255</v>
       </c>
       <c r="F30">
-        <v>255</v>
-      </c>
-      <c r="G30">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>48123108</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31">
-        <v>1.8452838698853469</v>
+        <v>13448</v>
       </c>
       <c r="D31">
-        <v>13448</v>
+        <v>12389</v>
       </c>
       <c r="E31">
-        <v>12389</v>
+        <v>255</v>
       </c>
       <c r="F31">
-        <v>255</v>
-      </c>
-      <c r="G31">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>48123109</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32">
-        <v>3.8059543302175514</v>
+        <v>13448</v>
       </c>
       <c r="D32">
-        <v>13448</v>
+        <v>12389</v>
       </c>
       <c r="E32">
-        <v>12389</v>
+        <v>255</v>
       </c>
       <c r="F32">
-        <v>255</v>
-      </c>
-      <c r="G32">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>48123110</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33">
-        <v>2.7467342537205104</v>
+        <v>13448</v>
       </c>
       <c r="D33">
-        <v>13448</v>
+        <v>12389</v>
       </c>
       <c r="E33">
-        <v>12389</v>
+        <v>255</v>
       </c>
       <c r="F33">
-        <v>255</v>
-      </c>
-      <c r="G33">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>48123111</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34">
-        <v>3.9258615962055838</v>
+        <v>18658</v>
       </c>
       <c r="D34">
-        <v>18658</v>
+        <v>15860</v>
       </c>
       <c r="E34">
-        <v>15860</v>
+        <v>671</v>
       </c>
       <c r="F34">
-        <v>671</v>
-      </c>
-      <c r="G34">
         <v>453</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>48123112</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35">
-        <v>2.8676849740045101</v>
+        <v>4017</v>
       </c>
       <c r="D35">
-        <v>4017</v>
+        <v>3598</v>
       </c>
       <c r="E35">
-        <v>3598</v>
+        <v>619</v>
       </c>
       <c r="F35">
-        <v>619</v>
-      </c>
-      <c r="G35">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>48123113</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36">
-        <v>0.30663815314778187</v>
+        <v>4017</v>
       </c>
       <c r="D36">
-        <v>4017</v>
+        <v>3598</v>
       </c>
       <c r="E36">
-        <v>3598</v>
+        <v>619</v>
       </c>
       <c r="F36">
-        <v>619</v>
-      </c>
-      <c r="G36">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>48123114</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37">
-        <v>2.5153903784344771</v>
+        <v>4017</v>
       </c>
       <c r="D37">
-        <v>4017</v>
+        <v>3598</v>
       </c>
       <c r="E37">
-        <v>3598</v>
+        <v>619</v>
       </c>
       <c r="F37">
-        <v>619</v>
-      </c>
-      <c r="G37">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>48123115</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38">
-        <v>3.9778620604138588</v>
+        <v>4017</v>
       </c>
       <c r="D38">
-        <v>4017</v>
+        <v>3598</v>
       </c>
       <c r="E38">
-        <v>3598</v>
+        <v>619</v>
       </c>
       <c r="F38">
-        <v>619</v>
-      </c>
-      <c r="G38">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>48123116</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39">
-        <v>1.8162583019025798</v>
+        <v>4017</v>
       </c>
       <c r="D39">
-        <v>4017</v>
+        <v>3598</v>
       </c>
       <c r="E39">
-        <v>3598</v>
+        <v>619</v>
       </c>
       <c r="F39">
-        <v>619</v>
-      </c>
-      <c r="G39">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>48123117</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40">
-        <v>1.5682727487225501</v>
+        <v>4017</v>
       </c>
       <c r="D40">
-        <v>4017</v>
+        <v>3598</v>
       </c>
       <c r="E40">
-        <v>3598</v>
+        <v>619</v>
       </c>
       <c r="F40">
-        <v>619</v>
-      </c>
-      <c r="G40">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>48123118</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41">
-        <v>1.1666185345137092</v>
+        <v>4017</v>
       </c>
       <c r="D41">
-        <v>4017</v>
+        <v>3598</v>
       </c>
       <c r="E41">
-        <v>3598</v>
+        <v>619</v>
       </c>
       <c r="F41">
-        <v>619</v>
-      </c>
-      <c r="G41">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>48123119</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42">
-        <v>1.9173121239570401</v>
+        <v>20338</v>
       </c>
       <c r="D42">
-        <v>20338</v>
+        <v>20110</v>
       </c>
       <c r="E42">
-        <v>20110</v>
+        <v>103</v>
       </c>
       <c r="F42">
-        <v>103</v>
-      </c>
-      <c r="G42">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>48123120</v>
       </c>
       <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>4017</v>
+      </c>
+      <c r="D43">
+        <v>3598</v>
+      </c>
+      <c r="E43">
+        <v>619</v>
+      </c>
+      <c r="F43">
         <v>48</v>
       </c>
-      <c r="C43">
-        <v>3.0039952898780466</v>
-      </c>
-      <c r="D43">
-        <v>4017</v>
-      </c>
-      <c r="E43">
-        <v>3598</v>
-      </c>
-      <c r="F43">
-        <v>619</v>
-      </c>
-      <c r="G43">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>48123121</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44">
-        <v>3.1606826198341005</v>
+        <v>4017</v>
       </c>
       <c r="D44">
-        <v>4017</v>
+        <v>3598</v>
       </c>
       <c r="E44">
-        <v>3598</v>
+        <v>619</v>
       </c>
       <c r="F44">
-        <v>619</v>
-      </c>
-      <c r="G44">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>48123122</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45">
-        <v>2.6612804295443535</v>
+        <v>4017</v>
       </c>
       <c r="D45">
-        <v>4017</v>
+        <v>3598</v>
       </c>
       <c r="E45">
-        <v>3598</v>
+        <v>619</v>
       </c>
       <c r="F45">
-        <v>619</v>
-      </c>
-      <c r="G45">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>48123123</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46">
-        <v>2.9207786844757133</v>
+        <v>4017</v>
       </c>
       <c r="D46">
-        <v>4017</v>
+        <v>3598</v>
       </c>
       <c r="E46">
-        <v>3598</v>
+        <v>619</v>
       </c>
       <c r="F46">
-        <v>619</v>
-      </c>
-      <c r="G46">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>48123124</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47">
-        <v>2.6823916180805396</v>
+        <v>20338</v>
       </c>
       <c r="D47">
-        <v>20338</v>
+        <v>20110</v>
       </c>
       <c r="E47">
-        <v>20110</v>
+        <v>103</v>
       </c>
       <c r="F47">
-        <v>103</v>
-      </c>
-      <c r="G47">
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>48123125</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48">
-        <v>0.50672042566530573</v>
+        <v>18658</v>
       </c>
       <c r="D48">
-        <v>18658</v>
+        <v>15860</v>
       </c>
       <c r="E48">
-        <v>15860</v>
+        <v>671</v>
       </c>
       <c r="F48">
-        <v>671</v>
-      </c>
-      <c r="G48">
         <v>453</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48123126</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49">
-        <v>2.1523851161421232</v>
+        <v>20338</v>
       </c>
       <c r="D49">
-        <v>20338</v>
+        <v>20110</v>
       </c>
       <c r="E49">
-        <v>20110</v>
+        <v>103</v>
       </c>
       <c r="F49">
-        <v>103</v>
-      </c>
-      <c r="G49">
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48123127</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50">
-        <v>2.840524637324048</v>
+        <v>13658</v>
       </c>
       <c r="D50">
-        <v>13658</v>
+        <v>13560</v>
       </c>
       <c r="E50">
-        <v>13560</v>
+        <v>68</v>
       </c>
       <c r="F50">
-        <v>68</v>
-      </c>
-      <c r="G50">
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>48123128</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51">
-        <v>4.0625126130701821</v>
+        <v>13448</v>
       </c>
       <c r="D51">
-        <v>13448</v>
+        <v>12389</v>
       </c>
       <c r="E51">
-        <v>12389</v>
+        <v>255</v>
       </c>
       <c r="F51">
-        <v>255</v>
-      </c>
-      <c r="G51">
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>48123129</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52">
-        <v>1.1608252597417168</v>
+        <v>4017</v>
       </c>
       <c r="D52">
-        <v>4017</v>
+        <v>3598</v>
       </c>
       <c r="E52">
-        <v>3598</v>
+        <v>619</v>
       </c>
       <c r="F52">
-        <v>619</v>
-      </c>
-      <c r="G52">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>48123130</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53">
-        <v>2.729564130539905</v>
+        <v>22880</v>
       </c>
       <c r="D53">
-        <v>22880</v>
+        <v>23143</v>
       </c>
       <c r="E53">
-        <v>23143</v>
+        <v>90</v>
       </c>
       <c r="F53">
-        <v>90</v>
-      </c>
-      <c r="G53">
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>48123131</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C54">
-        <v>1.1615931297737943</v>
+        <v>20106</v>
       </c>
       <c r="D54">
-        <v>20106</v>
+        <v>19576</v>
       </c>
       <c r="E54">
-        <v>19576</v>
+        <v>155</v>
       </c>
       <c r="F54">
-        <v>155</v>
-      </c>
-      <c r="G54">
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>48123132</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55">
-        <v>3.6677719844937502</v>
+        <v>4017</v>
       </c>
       <c r="D55">
-        <v>4017</v>
+        <v>3598</v>
       </c>
       <c r="E55">
-        <v>3598</v>
+        <v>619</v>
       </c>
       <c r="F55">
-        <v>619</v>
-      </c>
-      <c r="G55">
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>48123133</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56">
-        <v>4.4948223818999464</v>
+        <v>20106</v>
       </c>
       <c r="D56">
-        <v>20106</v>
+        <v>19576</v>
       </c>
       <c r="E56">
-        <v>19576</v>
+        <v>155</v>
       </c>
       <c r="F56">
-        <v>155</v>
-      </c>
-      <c r="G56">
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>48123134</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57">
-        <v>2.915974549201739</v>
+        <v>14394</v>
       </c>
       <c r="D57">
-        <v>14394</v>
+        <v>14294</v>
       </c>
       <c r="E57">
-        <v>14294</v>
+        <v>116</v>
       </c>
       <c r="F57">
-        <v>116</v>
-      </c>
-      <c r="G57">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>48123135</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58">
-        <v>2.769299224111835</v>
+        <v>14394</v>
       </c>
       <c r="D58">
-        <v>14394</v>
+        <v>14294</v>
       </c>
       <c r="E58">
-        <v>14294</v>
+        <v>116</v>
       </c>
       <c r="F58">
-        <v>116</v>
-      </c>
-      <c r="G58">
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>48123136</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59">
-        <v>0.26082286533174237</v>
+        <v>14394</v>
       </c>
       <c r="D59">
-        <v>14394</v>
+        <v>14294</v>
       </c>
       <c r="E59">
-        <v>14294</v>
+        <v>116</v>
       </c>
       <c r="F59">
-        <v>116</v>
-      </c>
-      <c r="G59">
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>48123137</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C60">
-        <v>3.0784027615232192</v>
+        <v>18658</v>
       </c>
       <c r="D60">
-        <v>18658</v>
+        <v>15860</v>
       </c>
       <c r="E60">
-        <v>15860</v>
+        <v>671</v>
       </c>
       <c r="F60">
-        <v>671</v>
-      </c>
-      <c r="G60">
         <v>453</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>48123138</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C61">
-        <v>3.3630207235623315</v>
+        <v>18658</v>
       </c>
       <c r="D61">
-        <v>18658</v>
+        <v>15860</v>
       </c>
       <c r="E61">
-        <v>15860</v>
+        <v>671</v>
       </c>
       <c r="F61">
-        <v>671</v>
-      </c>
-      <c r="G61">
         <v>453</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>48123139</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62">
-        <v>2.2662121155532748</v>
+        <v>18658</v>
       </c>
       <c r="D62">
-        <v>18658</v>
+        <v>15860</v>
       </c>
       <c r="E62">
-        <v>15860</v>
+        <v>671</v>
       </c>
       <c r="F62">
-        <v>671</v>
-      </c>
-      <c r="G62">
         <v>453</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>48123140</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C63">
-        <v>4.304343582795795</v>
+        <v>18658</v>
       </c>
       <c r="D63">
-        <v>18658</v>
+        <v>15860</v>
       </c>
       <c r="E63">
-        <v>15860</v>
+        <v>671</v>
       </c>
       <c r="F63">
-        <v>671</v>
-      </c>
-      <c r="G63">
         <v>453</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>48123141</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C64">
-        <v>0.91347879568814516</v>
+        <v>20338</v>
       </c>
       <c r="D64">
-        <v>20338</v>
+        <v>20110</v>
       </c>
       <c r="E64">
-        <v>20110</v>
+        <v>103</v>
       </c>
       <c r="F64">
-        <v>103</v>
-      </c>
-      <c r="G64">
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>48125101</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65">
-        <v>2.1585656961190165</v>
+        <v>933</v>
       </c>
       <c r="D65">
-        <v>933</v>
+        <v>907</v>
       </c>
       <c r="E65">
-        <v>907</v>
+        <v>29</v>
       </c>
       <c r="F65">
-        <v>29</v>
-      </c>
-      <c r="G65">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>48125102</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66">
-        <v>1.9797964983210066</v>
+        <v>8016</v>
       </c>
       <c r="D66">
-        <v>8016</v>
+        <v>8156</v>
       </c>
       <c r="E66">
-        <v>8156</v>
+        <v>9</v>
       </c>
       <c r="F66">
-        <v>9</v>
-      </c>
-      <c r="G66">
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>48125103</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67">
-        <v>0.51596092810057836</v>
+        <v>8016</v>
       </c>
       <c r="D67">
-        <v>8016</v>
+        <v>8156</v>
       </c>
       <c r="E67">
-        <v>8156</v>
+        <v>9</v>
       </c>
       <c r="F67">
-        <v>9</v>
-      </c>
-      <c r="G67">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>48125104</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68">
-        <v>4.845365465347621</v>
+        <v>9552</v>
       </c>
       <c r="D68">
-        <v>9552</v>
+        <v>9737</v>
       </c>
       <c r="E68">
-        <v>9737</v>
+        <v>56</v>
       </c>
       <c r="F68">
-        <v>56</v>
-      </c>
-      <c r="G68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>48125105</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C69">
-        <v>1.7853890596447197</v>
+        <v>21063</v>
       </c>
       <c r="D69">
-        <v>21063</v>
+        <v>21361</v>
       </c>
       <c r="E69">
-        <v>21361</v>
+        <v>181</v>
       </c>
       <c r="F69">
-        <v>181</v>
-      </c>
-      <c r="G69">
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>48125108</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70">
-        <v>0.96731326881290269</v>
+        <v>5504</v>
       </c>
       <c r="D70">
-        <v>5504</v>
+        <v>5560</v>
       </c>
       <c r="E70">
-        <v>5560</v>
+        <v>90</v>
       </c>
       <c r="F70">
         <v>90</v>
       </c>
-      <c r="G70">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>48125109</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71">
-        <v>1.951263848172577</v>
+        <v>5504</v>
       </c>
       <c r="D71">
-        <v>5504</v>
+        <v>5560</v>
       </c>
       <c r="E71">
-        <v>5560</v>
+        <v>90</v>
       </c>
       <c r="F71">
         <v>90</v>
       </c>
-      <c r="G71">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>48125110</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72">
-        <v>4.2967951131752233</v>
+        <v>6943</v>
       </c>
       <c r="D72">
-        <v>6943</v>
+        <v>7042</v>
       </c>
       <c r="E72">
-        <v>7042</v>
+        <v>61</v>
       </c>
       <c r="F72">
-        <v>61</v>
-      </c>
-      <c r="G72">
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>48125111</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73">
-        <v>2.716873461348694</v>
+        <v>9552</v>
       </c>
       <c r="D73">
-        <v>9552</v>
+        <v>9737</v>
       </c>
       <c r="E73">
-        <v>9737</v>
+        <v>56</v>
       </c>
       <c r="F73">
-        <v>56</v>
-      </c>
-      <c r="G73">
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>48125115</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74">
-        <v>4.1354162046353808</v>
+        <v>5504</v>
       </c>
       <c r="D74">
-        <v>5504</v>
+        <v>5560</v>
       </c>
       <c r="E74">
-        <v>5560</v>
+        <v>90</v>
       </c>
       <c r="F74">
         <v>90</v>
       </c>
-      <c r="G74">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>48125116</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75">
-        <v>2.5849049077019961</v>
+        <v>6889</v>
       </c>
       <c r="D75">
-        <v>6889</v>
+        <v>7333</v>
       </c>
       <c r="E75">
-        <v>7333</v>
+        <v>18</v>
       </c>
       <c r="F75">
-        <v>18</v>
-      </c>
-      <c r="G75">
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>48125117</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C76">
-        <v>0.48629532244172768</v>
+        <v>9552</v>
       </c>
       <c r="D76">
-        <v>9552</v>
+        <v>9737</v>
       </c>
       <c r="E76">
-        <v>9737</v>
+        <v>56</v>
       </c>
       <c r="F76">
-        <v>56</v>
-      </c>
-      <c r="G76">
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>48125118</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77">
-        <v>1.6942031490333491</v>
+        <v>6030</v>
       </c>
       <c r="D77">
-        <v>6030</v>
+        <v>6123</v>
       </c>
       <c r="E77">
-        <v>6123</v>
+        <v>39</v>
       </c>
       <c r="F77">
-        <v>39</v>
-      </c>
-      <c r="G77">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>48125119</v>
       </c>
       <c r="B78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C78">
-        <v>1.1580440233015836</v>
+        <v>8016</v>
       </c>
       <c r="D78">
-        <v>8016</v>
+        <v>8156</v>
       </c>
       <c r="E78">
-        <v>8156</v>
+        <v>9</v>
       </c>
       <c r="F78">
-        <v>9</v>
-      </c>
-      <c r="G78">
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>48125120</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C79">
-        <v>3.8943333153040811</v>
+        <v>9552</v>
       </c>
       <c r="D79">
-        <v>9552</v>
+        <v>9737</v>
       </c>
       <c r="E79">
-        <v>9737</v>
+        <v>56</v>
       </c>
       <c r="F79">
-        <v>56</v>
-      </c>
-      <c r="G79">
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>48125121</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80">
-        <v>0.10254519212525015</v>
+        <v>9552</v>
       </c>
       <c r="D80">
-        <v>9552</v>
+        <v>9737</v>
       </c>
       <c r="E80">
-        <v>9737</v>
+        <v>56</v>
       </c>
       <c r="F80">
-        <v>56</v>
-      </c>
-      <c r="G80">
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>48125122</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C81">
-        <v>4.7817500748946875</v>
+        <v>9552</v>
       </c>
       <c r="D81">
-        <v>9552</v>
+        <v>9737</v>
       </c>
       <c r="E81">
-        <v>9737</v>
+        <v>56</v>
       </c>
       <c r="F81">
-        <v>56</v>
-      </c>
-      <c r="G81">
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>48125123</v>
       </c>
       <c r="B82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C82">
-        <v>0.3832016034100566</v>
+        <v>6889</v>
       </c>
       <c r="D82">
-        <v>6889</v>
+        <v>7333</v>
       </c>
       <c r="E82">
-        <v>7333</v>
+        <v>18</v>
       </c>
       <c r="F82">
-        <v>18</v>
-      </c>
-      <c r="G82">
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>48125124</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C83">
-        <v>0.94355275663735527</v>
+        <v>5504</v>
       </c>
       <c r="D83">
-        <v>5504</v>
+        <v>5560</v>
       </c>
       <c r="E83">
-        <v>5560</v>
+        <v>90</v>
       </c>
       <c r="F83">
         <v>90</v>
       </c>
-      <c r="G83">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>48125127</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C84">
-        <v>2.8266579205023796</v>
+        <v>6889</v>
       </c>
       <c r="D84">
-        <v>6889</v>
+        <v>7333</v>
       </c>
       <c r="E84">
-        <v>7333</v>
+        <v>18</v>
       </c>
       <c r="F84">
-        <v>18</v>
-      </c>
-      <c r="G84">
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>48125128</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C85">
-        <v>2.5144348893567199</v>
+        <v>6889</v>
       </c>
       <c r="D85">
-        <v>6889</v>
+        <v>7333</v>
       </c>
       <c r="E85">
-        <v>7333</v>
+        <v>18</v>
       </c>
       <c r="F85">
-        <v>18</v>
-      </c>
-      <c r="G85">
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>48125134</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C86">
-        <v>3.5908763610323624</v>
+        <v>5504</v>
       </c>
       <c r="D86">
-        <v>5504</v>
+        <v>5560</v>
       </c>
       <c r="E86">
-        <v>5560</v>
+        <v>90</v>
       </c>
       <c r="F86">
         <v>90</v>
       </c>
-      <c r="G86">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>48125135</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C87">
-        <v>0.52084363077170404</v>
+        <v>6889</v>
       </c>
       <c r="D87">
-        <v>6889</v>
+        <v>7333</v>
       </c>
       <c r="E87">
-        <v>7333</v>
+        <v>18</v>
       </c>
       <c r="F87">
-        <v>18</v>
-      </c>
-      <c r="G87">
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>48125136</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C88">
-        <v>0.48430241215419056</v>
+        <v>6943</v>
       </c>
       <c r="D88">
-        <v>6943</v>
+        <v>7042</v>
       </c>
       <c r="E88">
-        <v>7042</v>
+        <v>61</v>
       </c>
       <c r="F88">
-        <v>61</v>
-      </c>
-      <c r="G88">
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>48125137</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C89">
-        <v>0.67433711810179764</v>
+        <v>9552</v>
       </c>
       <c r="D89">
-        <v>9552</v>
+        <v>9737</v>
       </c>
       <c r="E89">
-        <v>9737</v>
+        <v>56</v>
       </c>
       <c r="F89">
-        <v>56</v>
-      </c>
-      <c r="G89">
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>48125138</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C90">
-        <v>3.3314749053490837</v>
+        <v>6943</v>
       </c>
       <c r="D90">
-        <v>6943</v>
+        <v>7042</v>
       </c>
       <c r="E90">
-        <v>7042</v>
+        <v>61</v>
       </c>
       <c r="F90">
-        <v>61</v>
-      </c>
-      <c r="G90">
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>48125139</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91">
-        <v>3.0633075613036551</v>
+        <v>5504</v>
       </c>
       <c r="D91">
-        <v>5504</v>
+        <v>5560</v>
       </c>
       <c r="E91">
-        <v>5560</v>
+        <v>90</v>
       </c>
       <c r="F91">
         <v>90</v>
       </c>
-      <c r="G91">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>48125140</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C92">
-        <v>1.9078576978214301</v>
+        <v>4962</v>
       </c>
       <c r="D92">
-        <v>4962</v>
+        <v>5150</v>
       </c>
       <c r="E92">
-        <v>5150</v>
+        <v>6</v>
       </c>
       <c r="F92">
-        <v>6</v>
-      </c>
-      <c r="G92">
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>48125146</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C93">
-        <v>1.0116488941348956</v>
+        <v>9552</v>
       </c>
       <c r="D93">
-        <v>9552</v>
+        <v>9737</v>
       </c>
       <c r="E93">
-        <v>9737</v>
+        <v>56</v>
       </c>
       <c r="F93">
-        <v>56</v>
-      </c>
-      <c r="G93">
         <v>67</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>48125150</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C94">
-        <v>4.2561982559161411</v>
+        <v>9552</v>
       </c>
       <c r="D94">
-        <v>9552</v>
+        <v>9737</v>
       </c>
       <c r="E94">
-        <v>9737</v>
+        <v>56</v>
       </c>
       <c r="F94">
-        <v>56</v>
-      </c>
-      <c r="G94">
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>48125154</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C95">
-        <v>1.5746922475106606</v>
+        <v>5504</v>
       </c>
       <c r="D95">
-        <v>5504</v>
+        <v>5560</v>
       </c>
       <c r="E95">
-        <v>5560</v>
+        <v>90</v>
       </c>
       <c r="F95">
         <v>90</v>
       </c>
-      <c r="G95">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>48125155</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C96">
-        <v>2.8589908553476335</v>
+        <v>9552</v>
       </c>
       <c r="D96">
-        <v>9552</v>
+        <v>9737</v>
       </c>
       <c r="E96">
-        <v>9737</v>
+        <v>56</v>
       </c>
       <c r="F96">
-        <v>56</v>
-      </c>
-      <c r="G96">
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>48125156</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C97">
-        <v>1.1693576005742978</v>
+        <v>5504</v>
       </c>
       <c r="D97">
-        <v>5504</v>
+        <v>5560</v>
       </c>
       <c r="E97">
-        <v>5560</v>
+        <v>90</v>
       </c>
       <c r="F97">
         <v>90</v>
       </c>
-      <c r="G97">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>48125157</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C98">
-        <v>2.0989351945675985</v>
+        <v>5504</v>
       </c>
       <c r="D98">
-        <v>5504</v>
+        <v>5560</v>
       </c>
       <c r="E98">
-        <v>5560</v>
+        <v>90</v>
       </c>
       <c r="F98">
         <v>90</v>
       </c>
-      <c r="G98">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>48125158</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C99">
-        <v>1.8128807544600782</v>
+        <v>21063</v>
       </c>
       <c r="D99">
-        <v>21063</v>
+        <v>21361</v>
       </c>
       <c r="E99">
-        <v>21361</v>
+        <v>181</v>
       </c>
       <c r="F99">
-        <v>181</v>
-      </c>
-      <c r="G99">
         <v>206</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>48125159</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C100">
-        <v>2.0267385012467787</v>
+        <v>6943</v>
       </c>
       <c r="D100">
-        <v>6943</v>
+        <v>7042</v>
       </c>
       <c r="E100">
-        <v>7042</v>
+        <v>61</v>
       </c>
       <c r="F100">
-        <v>61</v>
-      </c>
-      <c r="G100">
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>48125160</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C101">
-        <v>4.9612474325141926</v>
+        <v>5504</v>
       </c>
       <c r="D101">
-        <v>5504</v>
+        <v>5560</v>
       </c>
       <c r="E101">
-        <v>5560</v>
+        <v>90</v>
       </c>
       <c r="F101">
         <v>90</v>
       </c>
-      <c r="G101">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>48127101</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C102">
-        <v>3.5309199595150114</v>
+        <v>4392</v>
       </c>
       <c r="D102">
-        <v>4392</v>
+        <v>4368</v>
       </c>
       <c r="E102">
-        <v>4368</v>
+        <v>26</v>
       </c>
       <c r="F102">
-        <v>26</v>
-      </c>
-      <c r="G102">
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>48127102</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C103">
-        <v>4.3097767831761686</v>
+        <v>2991</v>
       </c>
       <c r="D103">
-        <v>2991</v>
+        <v>2914</v>
       </c>
       <c r="E103">
-        <v>2914</v>
+        <v>5</v>
       </c>
       <c r="F103">
-        <v>5</v>
-      </c>
-      <c r="G103">
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>48127103</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C104">
-        <v>0.68935084766093502</v>
+        <v>1786</v>
       </c>
       <c r="D104">
-        <v>1786</v>
+        <v>1393</v>
       </c>
       <c r="E104">
-        <v>1393</v>
+        <v>412</v>
       </c>
       <c r="F104">
-        <v>412</v>
-      </c>
-      <c r="G104">
         <v>123</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>48127104</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C105">
-        <v>3.4750305386799525</v>
+        <v>8304</v>
       </c>
       <c r="D105">
-        <v>8304</v>
+        <v>8392</v>
       </c>
       <c r="E105">
-        <v>8392</v>
+        <v>34</v>
       </c>
       <c r="F105">
-        <v>34</v>
-      </c>
-      <c r="G105">
         <v>56</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>48127105</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C106">
-        <v>4.8904166766354065</v>
+        <v>1786</v>
       </c>
       <c r="D106">
-        <v>1786</v>
+        <v>1393</v>
       </c>
       <c r="E106">
-        <v>1393</v>
+        <v>412</v>
       </c>
       <c r="F106">
-        <v>412</v>
-      </c>
-      <c r="G106">
         <v>123</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>48127106</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C107">
-        <v>1.6910673875130295</v>
+        <v>8304</v>
       </c>
       <c r="D107">
-        <v>8304</v>
+        <v>8392</v>
       </c>
       <c r="E107">
-        <v>8392</v>
+        <v>34</v>
       </c>
       <c r="F107">
-        <v>34</v>
-      </c>
-      <c r="G107">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>48127107</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C108">
-        <v>0.32196461407617727</v>
+        <v>2991</v>
       </c>
       <c r="D108">
-        <v>2991</v>
+        <v>2914</v>
       </c>
       <c r="E108">
-        <v>2914</v>
+        <v>5</v>
       </c>
       <c r="F108">
-        <v>5</v>
-      </c>
-      <c r="G108">
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>48127108</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C109">
-        <v>0.16352195219444143</v>
+        <v>4990</v>
       </c>
       <c r="D109">
-        <v>4990</v>
+        <v>5128</v>
       </c>
       <c r="E109">
-        <v>5128</v>
+        <v>8</v>
       </c>
       <c r="F109">
-        <v>8</v>
-      </c>
-      <c r="G109">
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>48129101</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C110">
-        <v>0.90524762997233998</v>
+        <v>8643</v>
       </c>
       <c r="D110">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E110">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F110">
-        <v>76</v>
-      </c>
-      <c r="G110">
         <v>44</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>48129102</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C111">
-        <v>2.6913596964364261</v>
+        <v>8643</v>
       </c>
       <c r="D111">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E111">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F111">
-        <v>76</v>
-      </c>
-      <c r="G111">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>48129103</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C112">
-        <v>4.2055764359736516</v>
+        <v>8643</v>
       </c>
       <c r="D112">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E112">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F112">
-        <v>76</v>
-      </c>
-      <c r="G112">
         <v>44</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>48129104</v>
       </c>
       <c r="B113" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C113">
-        <v>0.98818486540546646</v>
+        <v>8643</v>
       </c>
       <c r="D113">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E113">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F113">
-        <v>76</v>
-      </c>
-      <c r="G113">
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>48129105</v>
       </c>
       <c r="B114" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C114">
-        <v>0.59706449009812479</v>
+        <v>4184</v>
       </c>
       <c r="D114">
-        <v>4184</v>
+        <v>4259</v>
       </c>
       <c r="E114">
-        <v>4259</v>
+        <v>38</v>
       </c>
       <c r="F114">
-        <v>38</v>
-      </c>
-      <c r="G114">
         <v>54</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>48129106</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C115">
-        <v>1.908922002911132</v>
+        <v>8643</v>
       </c>
       <c r="D115">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E115">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F115">
-        <v>76</v>
-      </c>
-      <c r="G115">
         <v>44</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>48129107</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C116">
-        <v>4.1379944960185053</v>
+        <v>8643</v>
       </c>
       <c r="D116">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E116">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F116">
-        <v>76</v>
-      </c>
-      <c r="G116">
         <v>44</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>48129108</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C117">
-        <v>2.9716684653113266</v>
+        <v>8643</v>
       </c>
       <c r="D117">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E117">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F117">
-        <v>76</v>
-      </c>
-      <c r="G117">
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>48129109</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C118">
-        <v>0.98143246101494774</v>
+        <v>8643</v>
       </c>
       <c r="D118">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E118">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F118">
-        <v>76</v>
-      </c>
-      <c r="G118">
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>48129110</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C119">
-        <v>0.85565056150626262</v>
+        <v>8643</v>
       </c>
       <c r="D119">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E119">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F119">
-        <v>76</v>
-      </c>
-      <c r="G119">
         <v>44</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>48129111</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C120">
-        <v>3.9413926722224839</v>
+        <v>8643</v>
       </c>
       <c r="D120">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E120">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F120">
-        <v>76</v>
-      </c>
-      <c r="G120">
         <v>44</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>48129112</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C121">
-        <v>2.1199740276175443</v>
+        <v>8643</v>
       </c>
       <c r="D121">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E121">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F121">
-        <v>76</v>
-      </c>
-      <c r="G121">
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>48129113</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C122">
-        <v>1.4640679303165605</v>
+        <v>8643</v>
       </c>
       <c r="D122">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E122">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F122">
-        <v>76</v>
-      </c>
-      <c r="G122">
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>48129114</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C123">
-        <v>1.777050112320258</v>
+        <v>8643</v>
       </c>
       <c r="D123">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E123">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F123">
-        <v>76</v>
-      </c>
-      <c r="G123">
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>48129115</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C124">
-        <v>4.8133333640574856</v>
+        <v>8643</v>
       </c>
       <c r="D124">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E124">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F124">
-        <v>76</v>
-      </c>
-      <c r="G124">
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>48129116</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C125">
-        <v>2.0457459315550262</v>
+        <v>8643</v>
       </c>
       <c r="D125">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E125">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F125">
-        <v>76</v>
-      </c>
-      <c r="G125">
         <v>44</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>48129117</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C126">
-        <v>3.98160678105969</v>
+        <v>8643</v>
       </c>
       <c r="D126">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E126">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F126">
-        <v>76</v>
-      </c>
-      <c r="G126">
         <v>44</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>48129118</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C127">
-        <v>3.5904876882471113</v>
+        <v>8643</v>
       </c>
       <c r="D127">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E127">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F127">
-        <v>76</v>
-      </c>
-      <c r="G127">
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>48129119</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C128">
-        <v>4.4930122761784048</v>
+        <v>8643</v>
       </c>
       <c r="D128">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E128">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F128">
-        <v>76</v>
-      </c>
-      <c r="G128">
         <v>44</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>48129120</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C129">
-        <v>4.909084295561958</v>
+        <v>8643</v>
       </c>
       <c r="D129">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E129">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F129">
-        <v>76</v>
-      </c>
-      <c r="G129">
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>48129121</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C130">
-        <v>2.3046230267318517</v>
+        <v>8643</v>
       </c>
       <c r="D130">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E130">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F130">
-        <v>76</v>
-      </c>
-      <c r="G130">
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>48129122</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C131">
-        <v>2.6778752058174788</v>
+        <v>8643</v>
       </c>
       <c r="D131">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E131">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F131">
-        <v>76</v>
-      </c>
-      <c r="G131">
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>48129123</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C132">
-        <v>1.5019418776091271</v>
+        <v>8643</v>
       </c>
       <c r="D132">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E132">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F132">
-        <v>76</v>
-      </c>
-      <c r="G132">
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>48129124</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C133">
-        <v>4.9219965193351829</v>
+        <v>8643</v>
       </c>
       <c r="D133">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E133">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F133">
-        <v>76</v>
-      </c>
-      <c r="G133">
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>48129125</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C134">
-        <v>0.86257803934970456</v>
+        <v>8643</v>
       </c>
       <c r="D134">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E134">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F134">
-        <v>76</v>
-      </c>
-      <c r="G134">
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>48129126</v>
       </c>
       <c r="B135" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C135">
-        <v>4.8905532202574866</v>
+        <v>8643</v>
       </c>
       <c r="D135">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E135">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F135">
-        <v>76</v>
-      </c>
-      <c r="G135">
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>48129127</v>
       </c>
       <c r="B136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C136">
-        <v>4.2519815910422301</v>
+        <v>8643</v>
       </c>
       <c r="D136">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E136">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F136">
-        <v>76</v>
-      </c>
-      <c r="G136">
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>48129128</v>
       </c>
       <c r="B137" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C137">
-        <v>4.6759569738607292</v>
+        <v>8643</v>
       </c>
       <c r="D137">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E137">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F137">
-        <v>76</v>
-      </c>
-      <c r="G137">
         <v>44</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>48129129</v>
       </c>
       <c r="B138" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C138">
-        <v>1.862679627604954</v>
+        <v>8643</v>
       </c>
       <c r="D138">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E138">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F138">
-        <v>76</v>
-      </c>
-      <c r="G138">
         <v>44</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>48129130</v>
       </c>
       <c r="B139" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C139">
-        <v>4.9843983935488625</v>
+        <v>8643</v>
       </c>
       <c r="D139">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E139">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F139">
-        <v>76</v>
-      </c>
-      <c r="G139">
         <v>44</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>48129131</v>
       </c>
       <c r="B140" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C140">
-        <v>0.38408068278820373</v>
+        <v>8643</v>
       </c>
       <c r="D140">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E140">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F140">
-        <v>76</v>
-      </c>
-      <c r="G140">
         <v>44</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>48129132</v>
       </c>
       <c r="B141" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C141">
-        <v>1.0600508160333866E-2</v>
+        <v>8643</v>
       </c>
       <c r="D141">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E141">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F141">
-        <v>76</v>
-      </c>
-      <c r="G141">
         <v>44</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>48129133</v>
       </c>
       <c r="B142" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C142">
-        <v>1.2782280850054955</v>
+        <v>8643</v>
       </c>
       <c r="D142">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E142">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F142">
-        <v>76</v>
-      </c>
-      <c r="G142">
         <v>44</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>48129134</v>
       </c>
       <c r="B143" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C143">
-        <v>4.3184832177732471</v>
+        <v>8643</v>
       </c>
       <c r="D143">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E143">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F143">
-        <v>76</v>
-      </c>
-      <c r="G143">
         <v>44</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>48129135</v>
       </c>
       <c r="B144" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C144">
-        <v>4.9003396588858541</v>
+        <v>4184</v>
       </c>
       <c r="D144">
-        <v>4184</v>
+        <v>4259</v>
       </c>
       <c r="E144">
-        <v>4259</v>
+        <v>38</v>
       </c>
       <c r="F144">
-        <v>38</v>
-      </c>
-      <c r="G144">
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>48129136</v>
       </c>
       <c r="B145" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C145">
-        <v>2.0827117001919691</v>
+        <v>8643</v>
       </c>
       <c r="D145">
-        <v>8643</v>
+        <v>8010</v>
       </c>
       <c r="E145">
-        <v>8010</v>
+        <v>76</v>
       </c>
       <c r="F145">
-        <v>76</v>
-      </c>
-      <c r="G145">
         <v>44</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>48129137</v>
       </c>
       <c r="B146" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C146">
-        <v>3.5817419677107356</v>
+        <v>4184</v>
       </c>
       <c r="D146">
-        <v>4184</v>
+        <v>4259</v>
       </c>
       <c r="E146">
-        <v>4259</v>
+        <v>38</v>
       </c>
       <c r="F146">
-        <v>38</v>
-      </c>
-      <c r="G146">
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>48129138</v>
       </c>
       <c r="B147" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C147">
-        <v>4.3908297116028008</v>
+        <v>5572</v>
       </c>
       <c r="D147">
-        <v>5572</v>
+        <v>5436</v>
       </c>
       <c r="E147">
-        <v>5436</v>
+        <v>26</v>
       </c>
       <c r="F147">
-        <v>26</v>
-      </c>
-      <c r="G147">
         <v>29</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>48129139</v>
       </c>
       <c r="B148" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C148">
-        <v>3.0196679275480829</v>
+        <v>5572</v>
       </c>
       <c r="D148">
-        <v>5572</v>
+        <v>5436</v>
       </c>
       <c r="E148">
-        <v>5436</v>
+        <v>26</v>
       </c>
       <c r="F148">
-        <v>26</v>
-      </c>
-      <c r="G148">
         <v>29</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>48129140</v>
       </c>
       <c r="B149" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C149">
-        <v>1.1268229921170858</v>
+        <v>3633</v>
       </c>
       <c r="D149">
-        <v>3633</v>
+        <v>3744</v>
       </c>
       <c r="E149">
-        <v>3744</v>
+        <v>12</v>
       </c>
       <c r="F149">
-        <v>12</v>
-      </c>
-      <c r="G149">
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>48129141</v>
       </c>
       <c r="B150" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C150">
-        <v>2.2192434810732165</v>
+        <v>3633</v>
       </c>
       <c r="D150">
-        <v>3633</v>
+        <v>3744</v>
       </c>
       <c r="E150">
-        <v>3744</v>
+        <v>12</v>
       </c>
       <c r="F150">
-        <v>12</v>
-      </c>
-      <c r="G150">
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>48129142</v>
       </c>
       <c r="B151" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C151">
-        <v>4.6784884988296929</v>
+        <v>4948</v>
       </c>
       <c r="D151">
-        <v>4948</v>
+        <v>5076</v>
       </c>
       <c r="E151">
-        <v>5076</v>
+        <v>14</v>
       </c>
       <c r="F151">
-        <v>14</v>
-      </c>
-      <c r="G151">
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>48129143</v>
       </c>
       <c r="B152" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C152">
-        <v>0.21287529642449066</v>
+        <v>4948</v>
       </c>
       <c r="D152">
-        <v>4948</v>
+        <v>5076</v>
       </c>
       <c r="E152">
-        <v>5076</v>
+        <v>14</v>
       </c>
       <c r="F152">
-        <v>14</v>
-      </c>
-      <c r="G152">
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>48129144</v>
       </c>
       <c r="B153" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C153">
-        <v>1.9218185786374276</v>
+        <v>4948</v>
       </c>
       <c r="D153">
-        <v>4948</v>
+        <v>5076</v>
       </c>
       <c r="E153">
-        <v>5076</v>
+        <v>14</v>
       </c>
       <c r="F153">
-        <v>14</v>
-      </c>
-      <c r="G153">
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>48129145</v>
       </c>
       <c r="B154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C154">
-        <v>2.0423754465070258</v>
+        <v>12713</v>
       </c>
       <c r="D154">
-        <v>12713</v>
+        <v>12732</v>
       </c>
       <c r="E154">
-        <v>12732</v>
+        <v>34</v>
       </c>
       <c r="F154">
-        <v>34</v>
-      </c>
-      <c r="G154">
         <v>39</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>48129146</v>
       </c>
       <c r="B155" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C155">
-        <v>2.991923186655856</v>
+        <v>12713</v>
       </c>
       <c r="D155">
-        <v>12713</v>
+        <v>12732</v>
       </c>
       <c r="E155">
-        <v>12732</v>
+        <v>34</v>
       </c>
       <c r="F155">
-        <v>34</v>
-      </c>
-      <c r="G155">
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>48129147</v>
       </c>
       <c r="B156" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C156">
-        <v>3.3490367033501833</v>
+        <v>6594</v>
       </c>
       <c r="D156">
-        <v>6594</v>
+        <v>6398</v>
       </c>
       <c r="E156">
-        <v>6398</v>
+        <v>168</v>
       </c>
       <c r="F156">
-        <v>168</v>
-      </c>
-      <c r="G156">
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>48129148</v>
       </c>
       <c r="B157" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C157">
-        <v>2.7715768540717969</v>
+        <v>6594</v>
       </c>
       <c r="D157">
-        <v>6594</v>
+        <v>6398</v>
       </c>
       <c r="E157">
-        <v>6398</v>
+        <v>168</v>
       </c>
       <c r="F157">
-        <v>168</v>
-      </c>
-      <c r="G157">
         <v>42</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>48129149</v>
       </c>
       <c r="B158" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C158">
-        <v>0.51661941935448152</v>
+        <v>6594</v>
       </c>
       <c r="D158">
-        <v>6594</v>
+        <v>6398</v>
       </c>
       <c r="E158">
-        <v>6398</v>
+        <v>168</v>
       </c>
       <c r="F158">
-        <v>168</v>
-      </c>
-      <c r="G158">
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>48129150</v>
       </c>
       <c r="B159" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C159">
-        <v>2.3334953560027865</v>
+        <v>6594</v>
       </c>
       <c r="D159">
-        <v>6594</v>
+        <v>6398</v>
       </c>
       <c r="E159">
-        <v>6398</v>
+        <v>168</v>
       </c>
       <c r="F159">
-        <v>168</v>
-      </c>
-      <c r="G159">
         <v>42</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>48129151</v>
       </c>
       <c r="B160" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C160">
-        <v>4.6101849110136515</v>
+        <v>6594</v>
       </c>
       <c r="D160">
-        <v>6594</v>
+        <v>6398</v>
       </c>
       <c r="E160">
-        <v>6398</v>
+        <v>168</v>
       </c>
       <c r="F160">
-        <v>168</v>
-      </c>
-      <c r="G160">
         <v>42</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>48129152</v>
       </c>
       <c r="B161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C161">
-        <v>0.24472493521107419</v>
+        <v>6594</v>
       </c>
       <c r="D161">
-        <v>6594</v>
+        <v>6398</v>
       </c>
       <c r="E161">
-        <v>6398</v>
+        <v>168</v>
       </c>
       <c r="F161">
-        <v>168</v>
-      </c>
-      <c r="G161">
         <v>42</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>48129153</v>
       </c>
       <c r="B162" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C162">
-        <v>4.5090458448888757</v>
+        <v>6594</v>
       </c>
       <c r="D162">
-        <v>6594</v>
+        <v>6398</v>
       </c>
       <c r="E162">
-        <v>6398</v>
+        <v>168</v>
       </c>
       <c r="F162">
-        <v>168</v>
-      </c>
-      <c r="G162">
         <v>42</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>48129154</v>
       </c>
       <c r="B163" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C163">
-        <v>1.6730284580349926</v>
+        <v>6594</v>
       </c>
       <c r="D163">
-        <v>6594</v>
+        <v>6398</v>
       </c>
       <c r="E163">
-        <v>6398</v>
+        <v>168</v>
       </c>
       <c r="F163">
-        <v>168</v>
-      </c>
-      <c r="G163">
         <v>42</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>48129155</v>
       </c>
       <c r="B164" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C164">
-        <v>2.6639977955301948</v>
+        <v>6594</v>
       </c>
       <c r="D164">
-        <v>6594</v>
+        <v>6398</v>
       </c>
       <c r="E164">
-        <v>6398</v>
+        <v>168</v>
       </c>
       <c r="F164">
-        <v>168</v>
-      </c>
-      <c r="G164">
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>48129156</v>
       </c>
       <c r="B165" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C165">
-        <v>2.263985988060679</v>
+        <v>6594</v>
       </c>
       <c r="D165">
-        <v>6594</v>
+        <v>6398</v>
       </c>
       <c r="E165">
-        <v>6398</v>
+        <v>168</v>
       </c>
       <c r="F165">
-        <v>168</v>
-      </c>
-      <c r="G165">
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>48129157</v>
       </c>
       <c r="B166" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C166">
-        <v>3.0478757000497385</v>
+        <v>3914</v>
       </c>
       <c r="D166">
-        <v>3914</v>
+        <v>3722</v>
       </c>
       <c r="E166">
-        <v>3722</v>
+        <v>516</v>
       </c>
       <c r="F166">
-        <v>516</v>
-      </c>
-      <c r="G166">
         <v>46</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>48129158</v>
       </c>
       <c r="B167" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C167">
-        <v>2.8340769395604082</v>
+        <v>3914</v>
       </c>
       <c r="D167">
-        <v>3914</v>
+        <v>3722</v>
       </c>
       <c r="E167">
-        <v>3722</v>
+        <v>516</v>
       </c>
       <c r="F167">
-        <v>516</v>
-      </c>
-      <c r="G167">
         <v>46</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>48129159</v>
       </c>
       <c r="B168" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C168">
-        <v>1.3727969331785816</v>
+        <v>3914</v>
       </c>
       <c r="D168">
-        <v>3914</v>
+        <v>3722</v>
       </c>
       <c r="E168">
-        <v>3722</v>
+        <v>516</v>
       </c>
       <c r="F168">
-        <v>516</v>
-      </c>
-      <c r="G168">
         <v>46</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>48129160</v>
       </c>
       <c r="B169" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C169">
-        <v>2.2390056857553819</v>
+        <v>3914</v>
       </c>
       <c r="D169">
-        <v>3914</v>
+        <v>3722</v>
       </c>
       <c r="E169">
-        <v>3722</v>
+        <v>516</v>
       </c>
       <c r="F169">
-        <v>516</v>
-      </c>
-      <c r="G169">
         <v>46</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>48129161</v>
       </c>
       <c r="B170" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C170">
-        <v>2.4615033827702879</v>
+        <v>3914</v>
       </c>
       <c r="D170">
-        <v>3914</v>
+        <v>3722</v>
       </c>
       <c r="E170">
-        <v>3722</v>
+        <v>516</v>
       </c>
       <c r="F170">
-        <v>516</v>
-      </c>
-      <c r="G170">
         <v>46</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>48129162</v>
       </c>
       <c r="B171" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C171">
-        <v>4.1129943696172209</v>
+        <v>23752</v>
       </c>
       <c r="D171">
-        <v>23752</v>
+        <v>20267</v>
       </c>
       <c r="E171">
-        <v>20267</v>
+        <v>741</v>
       </c>
       <c r="F171">
-        <v>741</v>
-      </c>
-      <c r="G171">
         <v>701</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>48129163</v>
       </c>
       <c r="B172" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C172">
-        <v>0.5083759889270717</v>
+        <v>23752</v>
       </c>
       <c r="D172">
-        <v>23752</v>
+        <v>20267</v>
       </c>
       <c r="E172">
-        <v>20267</v>
+        <v>741</v>
       </c>
       <c r="F172">
-        <v>741</v>
-      </c>
-      <c r="G172">
         <v>701</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>48129164</v>
       </c>
       <c r="B173" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C173">
-        <v>1.2609793534860303</v>
+        <v>23752</v>
       </c>
       <c r="D173">
-        <v>23752</v>
+        <v>20267</v>
       </c>
       <c r="E173">
-        <v>20267</v>
+        <v>741</v>
       </c>
       <c r="F173">
-        <v>741</v>
-      </c>
-      <c r="G173">
         <v>701</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>48129165</v>
       </c>
       <c r="B174" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C174">
-        <v>4.9221795986960242</v>
+        <v>23752</v>
       </c>
       <c r="D174">
-        <v>23752</v>
+        <v>20267</v>
       </c>
       <c r="E174">
-        <v>20267</v>
+        <v>741</v>
       </c>
       <c r="F174">
-        <v>741</v>
-      </c>
-      <c r="G174">
         <v>701</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>48121250</v>
       </c>
       <c r="B175" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C175">
-        <v>0.91377373179676868</v>
+        <v>10029</v>
       </c>
       <c r="D175">
-        <v>10029</v>
+        <v>9555</v>
       </c>
       <c r="E175">
-        <v>9555</v>
+        <v>88</v>
       </c>
       <c r="F175">
-        <v>88</v>
-      </c>
-      <c r="G175">
         <v>70</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>48121310</v>
       </c>
       <c r="B176" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C176">
-        <v>1.9802143674482502</v>
+        <v>21662</v>
       </c>
       <c r="D176">
-        <v>21662</v>
+        <v>21335</v>
       </c>
       <c r="E176">
-        <v>21335</v>
+        <v>97</v>
       </c>
       <c r="F176">
-        <v>97</v>
-      </c>
-      <c r="G176">
         <v>114</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>48121320</v>
       </c>
       <c r="B177" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C177">
-        <v>4.7594135377561422</v>
+        <v>3582</v>
       </c>
       <c r="D177">
-        <v>3582</v>
+        <v>3496</v>
       </c>
       <c r="E177">
-        <v>3496</v>
+        <v>263</v>
       </c>
       <c r="F177">
-        <v>263</v>
-      </c>
-      <c r="G177">
         <v>48</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>48125310</v>
       </c>
       <c r="B178" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C178">
-        <v>2.0851124316265408</v>
+        <v>2164</v>
       </c>
       <c r="D178">
-        <v>2164</v>
+        <v>2008</v>
       </c>
       <c r="E178">
-        <v>2008</v>
+        <v>176</v>
       </c>
       <c r="F178">
-        <v>176</v>
-      </c>
-      <c r="G178">
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>48125320</v>
       </c>
       <c r="B179" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C179">
-        <v>1.7195909200761839</v>
+        <v>6171</v>
       </c>
       <c r="D179">
-        <v>6171</v>
+        <v>5841</v>
       </c>
       <c r="E179">
-        <v>5841</v>
+        <v>82</v>
       </c>
       <c r="F179">
-        <v>82</v>
-      </c>
-      <c r="G179">
         <v>90</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>48125330</v>
       </c>
       <c r="B180" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C180">
-        <v>1.3689194001105254</v>
+        <v>1802</v>
       </c>
       <c r="D180">
-        <v>1802</v>
+        <v>1548</v>
       </c>
       <c r="E180">
-        <v>1548</v>
+        <v>274</v>
       </c>
       <c r="F180">
-        <v>274</v>
-      </c>
-      <c r="G180">
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>48125340</v>
       </c>
       <c r="B181" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C181">
-        <v>4.7853240138914206</v>
+        <v>1882</v>
       </c>
       <c r="D181">
-        <v>1882</v>
+        <v>1941</v>
       </c>
       <c r="E181">
-        <v>1941</v>
+        <v>60</v>
       </c>
       <c r="F181">
-        <v>60</v>
-      </c>
-      <c r="G181">
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>48127250</v>
       </c>
       <c r="B182" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C182">
-        <v>4.623530037985998</v>
+        <v>31522</v>
       </c>
       <c r="D182">
-        <v>31522</v>
+        <v>31283</v>
       </c>
       <c r="E182">
-        <v>31283</v>
+        <v>217</v>
       </c>
       <c r="F182">
-        <v>217</v>
-      </c>
-      <c r="G182">
         <v>208</v>
       </c>
     </row>
